--- a/05-mayo/2_TETTAMANTI/TETTAMANTI.xlsx
+++ b/05-mayo/2_TETTAMANTI/TETTAMANTI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\2_TETTAMANTI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\2_TETTAMANTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BC7527-74C7-4D29-B06D-AE97E21AE525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FA1F29-4E95-4284-8974-D8D761F9FB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28155" yWindow="1980" windowWidth="25470" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>NO REM</t>
   </si>
   <si>
-    <t>ABRIL 2025</t>
+    <t>MAYO 2025</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
